--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Diciembre.xlsx
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B48" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B49" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B57" s="65">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B84" s="65">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
